--- a/Parameters-Estimation/Lx_Parameters_Estimation/1-Trained-Models/Iteration-Results/training_lsb.xlsx
+++ b/Parameters-Estimation/Lx_Parameters_Estimation/1-Trained-Models/Iteration-Results/training_lsb.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>RMSE</t>
   </si>
@@ -34,6 +34,9 @@
   </si>
   <si>
     <t>Corr Coeff</t>
+  </si>
+  <si>
+    <t>NRMSE</t>
   </si>
 </sst>
 </file>
@@ -79,7 +82,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:H6"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11.7109375" customWidth="true"/>
@@ -89,6 +92,7 @@
     <col min="5" max="5" width="12.7109375" customWidth="true"/>
     <col min="6" max="6" width="12.7109375" customWidth="true"/>
     <col min="7" max="7" width="12.7109375" customWidth="true"/>
+    <col min="8" max="8" width="12.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -113,120 +117,138 @@
       <c r="G1" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="H1" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>3.6829753980892117</v>
+        <v>3.2274263923235722</v>
       </c>
       <c r="B2" s="0">
-        <v>2.6967290133760242</v>
+        <v>2.4330235866390177</v>
       </c>
       <c r="C2" s="0">
-        <v>0.5449066915839611</v>
+        <v>0.43516490023005738</v>
       </c>
       <c r="D2" s="0">
-        <v>0.73817795387288632</v>
+        <v>0.65967029661040322</v>
       </c>
       <c r="E2" s="0">
-        <v>0.78874788340919111</v>
+        <v>0.67923606550503024</v>
       </c>
       <c r="F2" s="0">
-        <v>0.4550933084160389</v>
+        <v>0.56483509976994262</v>
       </c>
       <c r="G2" s="0">
-        <v>0.67519084150743069</v>
+        <v>0.77120646395525005</v>
+      </c>
+      <c r="H2" s="0">
+        <v>0.23489275053301109</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>3.3524357198620507</v>
+        <v>4.1396993045858537</v>
       </c>
       <c r="B3" s="0">
-        <v>2.7829110917555533</v>
+        <v>3.2055406142659377</v>
       </c>
       <c r="C3" s="0">
-        <v>0.40057295246911789</v>
+        <v>0.55488456300778066</v>
       </c>
       <c r="D3" s="0">
-        <v>0.63290832864571933</v>
+        <v>0.74490574102216489</v>
       </c>
       <c r="E3" s="0">
-        <v>0.65789860325190386</v>
+        <v>0.75799021382500298</v>
       </c>
       <c r="F3" s="0">
-        <v>0.59942704753088205</v>
+        <v>0.44511543699221934</v>
       </c>
       <c r="G3" s="0">
-        <v>0.79986224261153716</v>
+        <v>0.69829100786795406</v>
+      </c>
+      <c r="H3" s="0">
+        <v>0.28888341274151103</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>2.8829314380407931</v>
+        <v>3.1179784642106232</v>
       </c>
       <c r="B4" s="0">
-        <v>2.1235837314032584</v>
+        <v>2.3569886736135399</v>
       </c>
       <c r="C4" s="0">
-        <v>0.27570229040910876</v>
+        <v>0.31426912593927947</v>
       </c>
       <c r="D4" s="0">
-        <v>0.52507360475376097</v>
+        <v>0.56059711552886127</v>
       </c>
       <c r="E4" s="0">
-        <v>0.49581688802317486</v>
+        <v>0.5291847044484822</v>
       </c>
       <c r="F4" s="0">
-        <v>0.72429770959089124</v>
+        <v>0.68573087406072053</v>
       </c>
       <c r="G4" s="0">
-        <v>0.87614228279632989</v>
+        <v>0.83136303180551141</v>
+      </c>
+      <c r="H4" s="0">
+        <v>0.21239635314786259</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>3.2264216194748077</v>
+        <v>3.470872981519741</v>
       </c>
       <c r="B5" s="0">
-        <v>2.5587771077913173</v>
+        <v>2.571916864747716</v>
       </c>
       <c r="C5" s="0">
-        <v>0.30838815797764618</v>
+        <v>0.36996448377599483</v>
       </c>
       <c r="D5" s="0">
-        <v>0.55532707297379824</v>
+        <v>0.60824705817290625</v>
       </c>
       <c r="E5" s="0">
-        <v>0.5686171350647371</v>
+        <v>0.59721743056953813</v>
       </c>
       <c r="F5" s="0">
-        <v>0.69161184202235382</v>
+        <v>0.63003551622400522</v>
       </c>
       <c r="G5" s="0">
-        <v>0.83612049468631322</v>
+        <v>0.7954007331535532</v>
+      </c>
+      <c r="H5" s="0">
+        <v>0.24783098761297689</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>2.9755386539961184</v>
+        <v>3.7358730822107589</v>
       </c>
       <c r="B6" s="0">
-        <v>2.1319285226662208</v>
+        <v>2.8809497485340585</v>
       </c>
       <c r="C6" s="0">
-        <v>0.36830496108160071</v>
+        <v>0.52984077104432237</v>
       </c>
       <c r="D6" s="0">
-        <v>0.60688134019888984</v>
+        <v>0.72790162181734586</v>
       </c>
       <c r="E6" s="0">
-        <v>0.56430082653949731</v>
+        <v>0.76866321999307863</v>
       </c>
       <c r="F6" s="0">
-        <v>0.63169503891839929</v>
+        <v>0.47015922895567763</v>
       </c>
       <c r="G6" s="0">
-        <v>0.79680744906913881</v>
+        <v>0.72216651386117059</v>
+      </c>
+      <c r="H6" s="0">
+        <v>0.27755372081803564</v>
       </c>
     </row>
   </sheetData>
